--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="4515" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="4515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -1417,8 +1417,8 @@
     <col min="6" max="6" width="104.875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50" style="5" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="348" width="9" style="5" customWidth="1"/>
-    <col min="349" max="16384" width="9" style="5"/>
+    <col min="9" max="353" width="9" style="5" customWidth="1"/>
+    <col min="354" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -1926,8 +1926,8 @@
     <col min="5" max="5" width="29.625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="35" width="9" style="5" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="5"/>
+    <col min="8" max="40" width="9" style="5" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -2008,8 +2008,8 @@
     <col min="6" max="6" width="50.125" style="5" customWidth="1"/>
     <col min="7" max="7" width="45.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="160" width="9" style="5" customWidth="1"/>
-    <col min="161" max="16384" width="9" style="5"/>
+    <col min="9" max="165" width="9" style="5" customWidth="1"/>
+    <col min="166" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2255,8 +2255,8 @@
     <col min="6" max="6" width="149.75" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="89.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="53" width="9" style="5" customWidth="1"/>
-    <col min="54" max="16384" width="9" style="5"/>
+    <col min="9" max="58" width="9" style="5" customWidth="1"/>
+    <col min="59" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2909,8 +2909,8 @@
     <col min="6" max="6" width="56.375" style="5" customWidth="1"/>
     <col min="7" max="7" width="67.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="49" width="9" style="5" customWidth="1"/>
-    <col min="50" max="16384" width="9" style="5"/>
+    <col min="9" max="54" width="9" style="5" customWidth="1"/>
+    <col min="55" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -3189,7 +3189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
@@ -3203,8 +3203,8 @@
     <col min="6" max="6" width="48.125" style="5" customWidth="1"/>
     <col min="7" max="7" width="65.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="136" width="9" style="5" customWidth="1"/>
-    <col min="137" max="16384" width="9" style="5"/>
+    <col min="9" max="141" width="9" style="5" customWidth="1"/>
+    <col min="142" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -3738,8 +3738,8 @@
     <col min="6" max="6" width="46.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="65.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="84" width="9" style="5" customWidth="1"/>
-    <col min="85" max="16384" width="9" style="5"/>
+    <col min="9" max="89" width="9" style="5" customWidth="1"/>
+    <col min="90" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -4296,8 +4296,8 @@
     <col min="6" max="6" width="80.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="73.75" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="39" width="9" style="5" customWidth="1"/>
-    <col min="40" max="16384" width="9" style="5"/>
+    <col min="9" max="44" width="9" style="5" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -4889,7 +4889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -4903,8 +4903,8 @@
     <col min="6" max="6" width="59.125" style="5" customWidth="1"/>
     <col min="7" max="7" width="21.25" style="5" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="36" width="9" style="5" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="5"/>
+    <col min="9" max="41" width="9" style="5" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -5269,8 +5269,8 @@
     <col min="5" max="5" width="25.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="35" width="9" style="5" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="5"/>
+    <col min="8" max="40" width="9" style="5" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
